--- a/biology/Zoologie/Galago_de_Rondo/Galago_de_Rondo.xlsx
+++ b/biology/Zoologie/Galago_de_Rondo/Galago_de_Rondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galago rondoensis
-Le Galago de Rondo[1] (Galago rondoensis) est une espèce de primate de la famille de Galagidae endémique de Tanzanie.
+Le Galago de Rondo (Galago rondoensis) est une espèce de primate de la famille de Galagidae endémique de Tanzanie.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tanzanie où elle est présente entre 100 et 900 m d'altitude. Elle vit dans les forêts sèches côtières[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tanzanie où elle est présente entre 100 et 900 m d'altitude. Elle vit dans les forêts sèches côtières.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le galago de Rondo est une des seize espèces de primates d'Afrique inclus entre 2000 et 2020 dans la liste des 25 espèces de primates les plus menacées au monde[3] (2006 ; 2008 ; 2010 ; 2012 ; 2014 ; 2018).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le galago de Rondo est une des seize espèces de primates d'Afrique inclus entre 2000 et 2020 dans la liste des 25 espèces de primates les plus menacées au monde (2006 ; 2008 ; 2010 ; 2012 ; 2014 ; 2018).
 </t>
         </is>
       </c>
